--- a/Employee_Reports35/Edwin Balakid Tegli Q0157.xlsx
+++ b/Employee_Reports35/Edwin Balakid Tegli Q0157.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -845,11 +845,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -894,11 +894,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">

--- a/Employee_Reports35/Edwin Balakid Tegli Q0157.xlsx
+++ b/Employee_Reports35/Edwin Balakid Tegli Q0157.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -845,11 +845,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -894,11 +894,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
